--- a/analysis/plots/plots.xlsx
+++ b/analysis/plots/plots.xlsx
@@ -8,18 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielfringeli/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{2FE69DAF-A6F4-4942-B4FC-9F24F06D1FE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:20001_{0AFFE6BE-32CB-7D4F-8E43-7EC8B988A1BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" activeTab="1" xr2:uid="{70E3DBC8-F5D1-2C4D-A0FC-55F456C8EC7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19120" activeTab="2" xr2:uid="{70E3DBC8-F5D1-2C4D-A0FC-55F456C8EC7B}"/>
   </bookViews>
   <sheets>
     <sheet name="tsne_full_100" sheetId="4" r:id="rId1"/>
     <sheet name="tsne_full_100_intel" sheetId="6" r:id="rId2"/>
+    <sheet name="tsne_full_1000" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="tsne_full_100" localSheetId="0">tsne_full_100!#REF!</definedName>
     <definedName name="tsne_full_100" localSheetId="1">tsne_full_100_intel!#REF!</definedName>
+    <definedName name="tsne_full_100" localSheetId="2">tsne_full_1000!#REF!</definedName>
     <definedName name="tsne_full_100_intel" localSheetId="1">tsne_full_100_intel!$C$46:$H$56</definedName>
+    <definedName name="tsne_full_1000_raw" localSheetId="2">tsne_full_1000!$B$41:$F$52</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -54,11 +57,22 @@
       </textFields>
     </textPr>
   </connection>
+  <connection id="2" xr16:uid="{338A1C4C-A6E4-EF4E-AC4A-9C85591A96B4}" name="tsne_full_1000_raw" type="6" refreshedVersion="7" background="1" saveData="1">
+    <textPr codePage="10000" sourceFile="/Users/gabrielfringeli/Desktop/team11/analysis/benchmark/tsne_full_1000_raw.csv" thousands="’" tab="0" comma="1">
+      <textFields count="5">
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="22">
   <si>
     <t>baseline</t>
   </si>
@@ -112,6 +126,18 @@
   </si>
   <si>
     <t>no_vars</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tsne_scalar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tsne_vec</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tsne_vec3</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> tsne_no_vars</t>
   </si>
 </sst>
 </file>
@@ -2886,7 +2912,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>tsne_full_100!$V$2</c:f>
+              <c:f>tsne_full_100!$X$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2921,8 +2947,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-6.0958712551990937E-2"/>
-                  <c:y val="6.1486858757423095E-2"/>
+                  <c:x val="-8.3294641166930153E-2"/>
+                  <c:y val="5.8412515819552049E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3047,7 +3073,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tsne_full_100!$V$3:$V$14</c:f>
+              <c:f>tsne_full_100!$X$3:$X$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3102,7 +3128,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>tsne_full_100!$W$2</c:f>
+              <c:f>tsne_full_100!$Y$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3257,7 +3283,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tsne_full_100!$W$3:$W$14</c:f>
+              <c:f>tsne_full_100!$Y$3:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
@@ -3312,7 +3338,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>tsne_full_100!$X$2</c:f>
+              <c:f>tsne_full_100!$Z$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3349,8 +3375,8 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.0319570850663635E-2"/>
-                  <c:y val="-4.9189487005938566E-2"/>
+                  <c:x val="2.6411240809811054E-2"/>
+                  <c:y val="-1.5371714689355801E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3475,45 +3501,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tsne_full_100!$X$3:$X$14</c:f>
+              <c:f>tsne_full_100!$Z$3:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.5178166666666667</c:v>
+                  <c:v>0.60281666666666667</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.87580000000000002</c:v>
+                  <c:v>1.058876923076923</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.6106370370370371</c:v>
+                  <c:v>1.9884148148148149</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.9984705882352942</c:v>
+                  <c:v>2.494470588235294</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.9745658823529413</c:v>
+                  <c:v>2.4785658823529411</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2132656363636363</c:v>
+                  <c:v>1.5273019999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.81879363076923073</c:v>
+                  <c:v>1.0322090153846153</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.60732082857142855</c:v>
+                  <c:v>0.76616882857142854</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.53942933460317455</c:v>
+                  <c:v>0.68076571555555554</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.50327541362962958</c:v>
+                  <c:v>0.63525384325925927</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.4940307194909091</c:v>
+                  <c:v>0.62364119221818182</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.46245273642553192</c:v>
+                  <c:v>0.58380501557446807</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3530,7 +3556,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>tsne_full_100!$Y$2</c:f>
+              <c:f>tsne_full_100!$AA$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3563,8 +3589,8 @@
               <c:idx val="8"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.4223699595464543E-2"/>
-                  <c:y val="-4.9189487005938622E-2"/>
+                  <c:x val="1.422368804776596E-2"/>
+                  <c:y val="-7.3784230508907908E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3685,45 +3711,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tsne_full_100!$Y$3:$Y$14</c:f>
+              <c:f>tsne_full_100!$AA$3:$AA$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.56489090909090911</c:v>
+                  <c:v>0.65761818181818177</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.91083199999999997</c:v>
+                  <c:v>1.101232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.7394879999999999</c:v>
+                  <c:v>2.1474880000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.4267142857142856</c:v>
+                  <c:v>3.0289999999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.1969161904761907</c:v>
+                  <c:v>4.0129161904761901</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8131205714285716</c:v>
+                  <c:v>4.8000920000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8706608</c:v>
+                  <c:v>4.8795335272727272</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6967354782608695</c:v>
+                  <c:v>4.6636363478260874</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2.8320040066666667</c:v>
+                  <c:v>3.5740200066666667</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.303124774237288</c:v>
+                  <c:v>2.9070938589830511</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>2.2643074643333332</c:v>
+                  <c:v>2.8583554643333335</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2.3122636821276594</c:v>
+                  <c:v>2.9190250778723406</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3740,7 +3766,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>tsne_full_100!$Z$2</c:f>
+              <c:f>tsne_full_100!$AB$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3773,8 +3799,8 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.17678026640077366"/>
-                  <c:y val="-5.8412515819552105E-2"/>
+                  <c:x val="-0.17678019140151338"/>
+                  <c:y val="-3.3817772316582818E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -3911,45 +3937,45 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>tsne_full_100!$Z$3:$Z$14</c:f>
+              <c:f>tsne_full_100!$AB$3:$AB$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0.8876857142857143</c:v>
+                  <c:v>1.2248285714285714</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2650444444444444</c:v>
+                  <c:v>1.8094888888888889</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.3506594594594596</c:v>
+                  <c:v>3.4328216216216214</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.8311666666666668</c:v>
+                  <c:v>4.1808333333333332</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.4428328205128205</c:v>
+                  <c:v>5.113499487179487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.8131205714285716</c:v>
+                  <c:v>5.6801205714285716</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.8706608</c:v>
+                  <c:v>5.7743771636363634</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.0488055238095235</c:v>
+                  <c:v>6.0446321904761904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9062124229885056</c:v>
+                  <c:v>5.8339223080459774</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>3.7745656022222223</c:v>
+                  <c:v>5.6383594911111112</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8816699388571427</c:v>
+                  <c:v>5.798890538857143</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>3.7474618296551725</c:v>
+                  <c:v>5.5986560986206895</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6864,7 +6890,7 @@
                   <a:lstStyle/>
                   <a:p>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1">
+                      <a:rPr lang="en-US" sz="1200" b="1">
                         <a:solidFill>
                           <a:schemeClr val="accent2"/>
                         </a:solidFill>
@@ -6872,14 +6898,14 @@
                       <a:t>vector</a:t>
                     </a:r>
                     <a:r>
-                      <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+                      <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent2"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t> (opt1)</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US" sz="1100" b="1">
+                    <a:endParaRPr lang="en-US" sz="1200" b="1">
                       <a:solidFill>
                         <a:schemeClr val="accent2"/>
                       </a:solidFill>
@@ -7226,6 +7252,3776 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000009-930B-7C40-8233-ABF381810884}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="5378432"/>
+        <c:axId val="5747104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5378432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5747104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5747104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5378432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10093976996330956"/>
+          <c:y val="0.1831674835288446"/>
+          <c:w val="0.86529133858267715"/>
+          <c:h val="0.70806640915168628"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>486186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1513500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4687560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20717700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100471000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>785651000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5058500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26236200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120018000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512834000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029650000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scalar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225"/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>296406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>849586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2871310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11125200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57937400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>449989000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2618160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13241100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59713300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256317000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1068270000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225"/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>802619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1638150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3739900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11496700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49956400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>422184000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2446250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12660300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57663400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>246571000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1032160000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225"/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>726509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1461110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3258280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8382690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23910800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84860900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284912000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1296180000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8293030000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37726400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157328000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_vars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>372360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>841564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2072240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6223000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20603200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90782200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284276000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1110890000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4568120000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18319700000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73501200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$C$3:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0" formatCode="General">
+                  <c:v>486186</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1513500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4687560</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20717700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>100471000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>785651000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5058500000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>26236200000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>120018000000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512834000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2029650000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$D$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scalar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$D$3:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>296406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>849586</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2871310</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11125200</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>57937400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>449989000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2618160000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>13241100000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59713300000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>256317000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1068270000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$E$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$E$3:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>802619</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1638150</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3739900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11496700</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49956400</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>422184000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2446250000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12660300000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57663400000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>246571000000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1032160000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$F$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$F$3:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>726509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1461110</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3258280</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8382690</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23910800</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84860900</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284912000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1296180000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8293030000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>37726400000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>157328000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$G$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_vars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>372360</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>841564</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2072240</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6223000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20603200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>90782200</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>284276000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1110890000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4568120000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18319700000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>73501200000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-F71C-2A4A-8AB1-F143CB023BC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="5378432"/>
+        <c:axId val="5747104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5378432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5747104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5747104"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="10000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.E+00" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5378432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10093976996330956"/>
+          <c:y val="0.1831674835288446"/>
+          <c:w val="0.86529133858267715"/>
+          <c:h val="0.70806640915168628"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$K$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4366471734892786E-2"/>
+                  <c:y val="-6.7635544633165637E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>baseline</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-2501-5C42-B9F3-733B0921C377}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$K$3:$K$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2501-5C42-B9F3-733B0921C377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scalar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.0329535745166431E-2"/>
+                  <c:y val="-9.8378974011877132E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>scalar (naive)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-2501-5C42-B9F3-733B0921C377}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$L$3:$L$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.6402704398696382</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7814559091133799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6325509958868949</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.862231690216805</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7341302854460159</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7459337894926321</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.9320820729061632</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.9814214831094092</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0099039912381329</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0007802837892141</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8999410261450758</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-2501-5C42-B9F3-733B0921C377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.2524123446557487E-2"/>
+                  <c:y val="-0.15371714689355814"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>vector (naive)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-2501-5C42-B9F3-733B0921C377}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$M$3:$M$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.60574942781070473</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.92390806702682904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.2533918019198373</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.80205624222603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.0111737435043358</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.8609208307278342</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0678589678078692</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.072320561124144</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0813548975606713</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0798634064833252</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.966410246473415</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-2501-5C42-B9F3-733B0921C377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$N$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.0173961259228561E-2"/>
+                  <c:y val="-6.763554463316547E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US"/>
+                      <a:t>vector (opt1)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-2501-5C42-B9F3-733B0921C377}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="accent2"/>
+                    </a:solidFill>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$N$3:$N$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.66920850257877051</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0358563010314077</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.438660888566974</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.4714858834097408</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2019087608946588</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.258103555347633</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.75460493064525</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20.241170207841503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14.472153121356127</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>13.593504813605326</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12.900755110342724</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-2501-5C42-B9F3-733B0921C377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$O$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_vars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19507071393122644"/>
+                  <c:y val="-7.6858573446779002E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>vector (opt2)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-2501-5C42-B9F3-733B0921C377}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$O$3:$O$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.305688043828553</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.7984371955074123</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2620738910550902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.3292142053671863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8764754989516188</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.6542405890141456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.794326640307307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23.617279838687899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26.272952549407634</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>27.993580680906348</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>27.613834876165289</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-2501-5C42-B9F3-733B0921C377}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="5378432"/>
+        <c:axId val="5747104"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="5378432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="out"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5747104"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickLblSkip val="2"/>
+        <c:tickMarkSkip val="1"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="5747104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="5378432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="de-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="de-DE"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10093976996330956"/>
+          <c:y val="0.1831674835288446"/>
+          <c:w val="0.86529133858267715"/>
+          <c:h val="0.70806640915168628"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$X$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>baseline</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.14827189912664426"/>
+                  <c:y val="3.6892115254453808E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg2">
+                            <a:lumMod val="50000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>baseline</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E862-ED40-BC9A-9AD055F32C3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="bg2">
+                          <a:lumMod val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$X$3:$X$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.60954449531660726</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71439180706970595</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.87947162276322866</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.77670783919064379</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.6327695753003354</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.32167355734289144</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.19921814292774537</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15340219391527737</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13403147887816827</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12541996254538507</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.12673525591900081</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E862-ED40-BC9A-9AD055F32C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$Y$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>scalar</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.8580246913580175E-2"/>
+                  <c:y val="-1.8446057627226963E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>scalar (naive)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-E862-ED40-BC9A-9AD055F32C3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$Y$3:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.005168586330911</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2616827490095175</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4118795950280534</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4161003847121849</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0718611466859058</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.54795981235096858</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37532257157698534</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.29629911110104146</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26256674154669063</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.24456339754288633</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2346642060003557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-E862-ED40-BC9A-9AD055F32C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$Z$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.4366471734892786E-2"/>
+                  <c:y val="-3.9966458192325083E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2">
+                            <a:lumMod val="75000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>vector (naive)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-E862-ED40-BC9A-9AD055F32C3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2">
+                          <a:lumMod val="75000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$Z$3:$Z$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.38391565612077461</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6833977352501297</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1385181421963153</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4436838397105256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3117047665564372</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.61677725351979229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.42438121369443027</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.32745775060622578</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28734250508988368</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26868193732434065</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.25668683473880016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-E862-ED40-BC9A-9AD055F32C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$AA$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>vector3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.422368804776596E-2"/>
+                  <c:y val="-4.9189487005938566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>vector (opt1)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-E862-ED40-BC9A-9AD055F32C3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$AA$3:$AA$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.42413514491905813</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76620377658081873</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3068072725487068</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.9799849451667664</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7405209361460092</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0684742678901591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6437304992418711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1984086778070946</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9979604327971803</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7560428232749481</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6840097334485915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-E862-ED40-BC9A-9AD055F32C3C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>tsne_full_1000!$AB$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>no_vars</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.19302450589144193"/>
+                  <c:y val="-4.9189487005938566E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                    <a:spAutoFit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1200" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="accent4"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>vector (opt2)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-E862-ED40-BC9A-9AD055F32C3C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="19050">
+                      <a:solidFill>
+                        <a:schemeClr val="accent4"/>
+                      </a:solidFill>
+                    </a:ln>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>tsne_full_1000!$B$3:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>512</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1024</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4096</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>tsne_full_1000!$AB$3:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.1873939198624988</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9291557148357106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0025209435200555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9147677968825327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.6794695969558129</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.2254702794160091</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3831717907948615</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.5028646940741206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.3492530423894298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3336887595320883</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.3166648618525958</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-E862-ED40-BC9A-9AD055F32C3C}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7426,7 +11222,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>292678</xdr:colOff>
+      <xdr:colOff>297042</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>182418</xdr:rowOff>
     </xdr:to>
@@ -7464,7 +11260,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>408132</xdr:colOff>
+      <xdr:colOff>412496</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>193963</xdr:rowOff>
     </xdr:to>
@@ -7494,6 +11290,175 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08725</cdr:x>
+      <cdr:y>0.0356</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93771</cdr:x>
+      <cdr:y>0.16525</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D1EBBC-D556-BB45-B1F3-EEB7B3D1CE46}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="541295" y="153723"/>
+          <a:ext cx="5276211" cy="559829"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>t-SNE (T=1000)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="0"/>
+            <a:t>Runtime [cycles] vs. input size</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08725</cdr:x>
+      <cdr:y>0.0356</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93771</cdr:x>
+      <cdr:y>0.16525</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D1EBBC-D556-BB45-B1F3-EEB7B3D1CE46}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="541295" y="153723"/>
+          <a:ext cx="5276211" cy="559829"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>t-SNE (T=1000)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="0"/>
+            <a:t>Speedup relative</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="0" baseline="0"/>
+            <a:t> to baseline vs. input size</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1300" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.08725</cdr:x>
+      <cdr:y>0.0356</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.93771</cdr:x>
+      <cdr:y>0.16525</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Textfeld 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3D1EBBC-D556-BB45-B1F3-EEB7B3D1CE46}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="541295" y="153723"/>
+          <a:ext cx="5276211" cy="559829"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+            <a:t>t-SNE (T=1000)</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="de-DE" sz="1400" b="1"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="0"/>
+            <a:t>Performance [flops/cycle]</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="de-DE" sz="1300" b="0" baseline="0"/>
+            <a:t> vs. input size</a:t>
+          </a:r>
+          <a:endParaRPr lang="de-DE" sz="1300" b="0"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7533,7 +11498,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>t-SNE (D=784)</a:t>
+            <a:t>t-SNE (T=100)</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
@@ -7586,7 +11551,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>t-SNE (D=784)</a:t>
+            <a:t>t-SNE (T=100)</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
@@ -7644,7 +11609,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>t-SNE (D=784)</a:t>
+            <a:t>t-SNE (T=100)</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
@@ -7821,7 +11786,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>t-SNE (D=784)</a:t>
+            <a:t>t-SNE (T=100)</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
@@ -7874,7 +11839,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>t-SNE (D=784)</a:t>
+            <a:t>t-SNE (T=100)</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
@@ -7932,7 +11897,7 @@
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
-            <a:t>t-SNE (D=784)</a:t>
+            <a:t>t-SNE (T=100)</a:t>
           </a:r>
           <a:br>
             <a:rPr lang="de-DE" sz="1400" b="1"/>
@@ -7953,8 +11918,131 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Diagramm 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ECDCCC2-B53A-AD4F-9441-C04D3DAE5D1B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>297042</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>182418</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Diagramm 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01260F55-AE34-4745-9D23-03F06B6C9EFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>11545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>412496</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>193963</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Diagramm 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3172A740-BEAB-A14B-B636-FEBABB928E65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tsne_full_100_intel" connectionId="1" xr16:uid="{0D755D8C-8F35-504B-AA8D-235898F69F66}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="tsne_full_1000_raw" connectionId="2" xr16:uid="{FF518BC0-085E-524C-91D5-9477D60D58A5}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8254,10 +12342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DCF3D1-6113-BA4D-B903-BE3C26E917E1}">
-  <dimension ref="A1:AA65"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView topLeftCell="J9" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8266,11 +12354,11 @@
     <col min="11" max="11" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.1640625" style="4" customWidth="1"/>
     <col min="13" max="13" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="14" max="21" width="10.83203125" style="4"/>
-    <col min="22" max="22" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="10.83203125" style="4"/>
+    <col min="24" max="24" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
@@ -8296,11 +12384,13 @@
         <v>4</v>
       </c>
       <c r="U1" s="3"/>
-      <c r="V1" s="3" t="s">
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -8350,26 +12440,30 @@
       <c r="U2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="3" t="s">
+      <c r="V2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="W2" s="3" t="s">
+      <c r="Y2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="X2" s="3" t="s">
+      <c r="Z2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="Y2" s="3" t="s">
+      <c r="AA2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z2" s="3" t="s">
+      <c r="AB2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="AA2" s="3" t="s">
-        <v>9</v>
-      </c>
+      <c r="AC2" s="3"/>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8417,32 +12511,40 @@
         <v>60552</v>
       </c>
       <c r="U3" s="4">
-        <f t="shared" ref="U3:U14" si="6">3238.5*B3^2 + 2530.5*B3 + 200</f>
+        <f>3238.5*B3^2 + 2530.5*B3 + 200</f>
         <v>62138</v>
       </c>
       <c r="V3" s="4">
-        <f t="shared" ref="V3:V14" si="7">T3/C3</f>
+        <f>4088.5*B3^2 + 1680.5*B3 + 200</f>
+        <v>72338</v>
+      </c>
+      <c r="W3" s="4">
+        <f>4838.5*B3^2 + 1930.5*B3 + 600</f>
+        <v>85738</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:X14" si="6">T3/C3</f>
         <v>0.60551999999999995</v>
       </c>
-      <c r="W3" s="4">
-        <f t="shared" ref="W3:W14" si="8">U3/D3</f>
+      <c r="Y3" s="4">
+        <f>U3/D3</f>
         <v>0.83970270270270275</v>
       </c>
-      <c r="X3" s="4">
-        <f t="shared" ref="X3:X14" si="9">U3/E3</f>
-        <v>0.5178166666666667</v>
-      </c>
-      <c r="Y3" s="4">
-        <f t="shared" ref="Y3:Y14" si="10">U3/F3</f>
-        <v>0.56489090909090911</v>
-      </c>
       <c r="Z3" s="4">
-        <f t="shared" ref="Z3:Z14" si="11">U3/G3</f>
-        <v>0.8876857142857143</v>
-      </c>
-      <c r="AA3" s="4"/>
+        <f>V3/E3</f>
+        <v>0.60281666666666667</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>V3/F3</f>
+        <v>0.65761818181818177</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>W3/G3</f>
+        <v>1.2248285714285714</v>
+      </c>
+      <c r="AC3" s="4"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8482,7 +12584,7 @@
         <v>1.28</v>
       </c>
       <c r="O4" s="4">
-        <f t="shared" ref="O4:O14" si="12">C4/G4</f>
+        <f t="shared" ref="O4:O14" si="7">C4/G4</f>
         <v>1.7777777777777777</v>
       </c>
       <c r="T4" s="4">
@@ -8490,32 +12592,40 @@
         <v>237032</v>
       </c>
       <c r="U4" s="4">
+        <f t="shared" ref="U4:U14" si="8">3238.5*B4^2 + 2530.5*B4 + 200</f>
+        <v>227708</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V14" si="9">4088.5*B4^2 + 1680.5*B4 + 200</f>
+        <v>275308</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" ref="W4:W14" si="10">4838.5*B4^2 + 1930.5*B4 + 600</f>
+        <v>325708</v>
+      </c>
+      <c r="X4" s="4">
         <f t="shared" si="6"/>
-        <v>227708</v>
-      </c>
-      <c r="V4" s="4">
-        <f t="shared" si="7"/>
         <v>0.74072499999999997</v>
       </c>
-      <c r="W4" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y4" s="4">
+        <f t="shared" ref="Y4:Y14" si="11">U4/D4</f>
         <v>1.0843238095238095</v>
       </c>
-      <c r="X4" s="4">
-        <f t="shared" si="9"/>
-        <v>0.87580000000000002</v>
-      </c>
-      <c r="Y4" s="4">
-        <f t="shared" si="10"/>
-        <v>0.91083199999999997</v>
-      </c>
       <c r="Z4" s="4">
-        <f t="shared" si="11"/>
-        <v>1.2650444444444444</v>
-      </c>
-      <c r="AA4" s="4"/>
+        <f t="shared" ref="Z4:Z14" si="12">V4/E4</f>
+        <v>1.058876923076923</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" ref="AA4:AA14" si="13">V4/F4</f>
+        <v>1.101232</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" ref="AB4:AB14" si="14">W4/G4</f>
+        <v>1.8094888888888889</v>
+      </c>
+      <c r="AC4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8555,7 +12665,7 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="O5" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>2.9729729729729728</v>
       </c>
       <c r="T5" s="4">
@@ -8563,32 +12673,40 @@
         <v>938376</v>
       </c>
       <c r="U5" s="4">
+        <f t="shared" si="8"/>
+        <v>869744</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="9"/>
+        <v>1073744</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="10"/>
+        <v>1270144</v>
+      </c>
+      <c r="X5" s="4">
         <f t="shared" si="6"/>
-        <v>869744</v>
-      </c>
-      <c r="V5" s="4">
-        <f t="shared" si="7"/>
         <v>0.85306909090909089</v>
       </c>
-      <c r="W5" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y5" s="4">
+        <f t="shared" si="11"/>
         <v>1.1753297297297298</v>
       </c>
-      <c r="X5" s="4">
-        <f t="shared" si="9"/>
-        <v>1.6106370370370371</v>
-      </c>
-      <c r="Y5" s="4">
-        <f t="shared" si="10"/>
-        <v>1.7394879999999999</v>
-      </c>
       <c r="Z5" s="4">
-        <f t="shared" si="11"/>
-        <v>2.3506594594594596</v>
-      </c>
-      <c r="AA5" s="4"/>
+        <f t="shared" si="12"/>
+        <v>1.9884148148148149</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="13"/>
+        <v>2.1474880000000001</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="14"/>
+        <v>3.4328216216216214</v>
+      </c>
+      <c r="AC5" s="4"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8628,7 +12746,7 @@
         <v>3.5</v>
       </c>
       <c r="O6" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>4.083333333333333</v>
       </c>
       <c r="T6" s="4">
@@ -8636,32 +12754,40 @@
         <v>3734600</v>
       </c>
       <c r="U6" s="4">
+        <f t="shared" si="8"/>
+        <v>3397400</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="9"/>
+        <v>4240600</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="10"/>
+        <v>5017000</v>
+      </c>
+      <c r="X6" s="4">
         <f t="shared" si="6"/>
-        <v>3397400</v>
-      </c>
-      <c r="V6" s="4">
-        <f t="shared" si="7"/>
         <v>0.76216326530612244</v>
       </c>
-      <c r="W6" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y6" s="4">
+        <f t="shared" si="11"/>
         <v>1.1715172413793102</v>
       </c>
-      <c r="X6" s="4">
-        <f t="shared" si="9"/>
-        <v>1.9984705882352942</v>
-      </c>
-      <c r="Y6" s="4">
-        <f t="shared" si="10"/>
-        <v>2.4267142857142856</v>
-      </c>
       <c r="Z6" s="4">
-        <f t="shared" si="11"/>
-        <v>2.8311666666666668</v>
-      </c>
-      <c r="AA6" s="4"/>
+        <f t="shared" si="12"/>
+        <v>2.494470588235294</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="13"/>
+        <v>3.0289999999999999</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" si="14"/>
+        <v>4.1808333333333332</v>
+      </c>
+      <c r="AC6" s="4"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8701,7 +12827,7 @@
         <v>5</v>
       </c>
       <c r="O7" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>5.384615384615385</v>
       </c>
       <c r="T7" s="4">
@@ -8709,32 +12835,40 @@
         <v>14901192</v>
       </c>
       <c r="U7" s="4">
+        <f t="shared" si="8"/>
+        <v>13427048</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="9"/>
+        <v>16854248</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="10"/>
+        <v>19942648</v>
+      </c>
+      <c r="X7" s="4">
         <f t="shared" si="6"/>
-        <v>13427048</v>
-      </c>
-      <c r="V7" s="4">
-        <f t="shared" si="7"/>
         <v>0.70958057142857145</v>
       </c>
-      <c r="W7" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y7" s="4">
+        <f t="shared" si="11"/>
         <v>1.0328498461538462</v>
       </c>
-      <c r="X7" s="4">
-        <f t="shared" si="9"/>
-        <v>1.9745658823529413</v>
-      </c>
-      <c r="Y7" s="4">
-        <f t="shared" si="10"/>
-        <v>3.1969161904761907</v>
-      </c>
       <c r="Z7" s="4">
-        <f t="shared" si="11"/>
-        <v>3.4428328205128205</v>
-      </c>
-      <c r="AA7" s="4"/>
+        <f t="shared" si="12"/>
+        <v>2.4785658823529411</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="13"/>
+        <v>4.0129161904761901</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="14"/>
+        <v>5.113499487179487</v>
+      </c>
+      <c r="AC7" s="4"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8774,7 +12908,7 @@
         <v>8.5714285714285712</v>
       </c>
       <c r="O8" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>8.5714285714285712</v>
       </c>
       <c r="T8" s="4">
@@ -8782,32 +12916,40 @@
         <v>59530952</v>
       </c>
       <c r="U8" s="4">
+        <f t="shared" si="8"/>
+        <v>53383688</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="9"/>
+        <v>67201288</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="10"/>
+        <v>79521688</v>
+      </c>
+      <c r="X8" s="4">
         <f t="shared" si="6"/>
-        <v>53383688</v>
-      </c>
-      <c r="V8" s="4">
-        <f t="shared" si="7"/>
         <v>0.49609126666666664</v>
       </c>
-      <c r="W8" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y8" s="4">
+        <f t="shared" si="11"/>
         <v>0.77367663768115946</v>
       </c>
-      <c r="X8" s="4">
-        <f t="shared" si="9"/>
-        <v>1.2132656363636363</v>
-      </c>
-      <c r="Y8" s="4">
-        <f t="shared" si="10"/>
-        <v>3.8131205714285716</v>
-      </c>
       <c r="Z8" s="4">
-        <f t="shared" si="11"/>
-        <v>3.8131205714285716</v>
-      </c>
-      <c r="AA8" s="4"/>
+        <f t="shared" si="12"/>
+        <v>1.5273019999999999</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="13"/>
+        <v>4.8000920000000002</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" si="14"/>
+        <v>5.6801205714285716</v>
+      </c>
+      <c r="AC8" s="4"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8847,7 +12989,7 @@
         <v>12.363636363636363</v>
       </c>
       <c r="O9" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>12.363636363636363</v>
       </c>
       <c r="T9" s="4">
@@ -8855,32 +12997,40 @@
         <v>237976776</v>
       </c>
       <c r="U9" s="4">
+        <f t="shared" si="8"/>
+        <v>212886344</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="9"/>
+        <v>268374344</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="10"/>
+        <v>317590744</v>
+      </c>
+      <c r="X9" s="4">
         <f t="shared" si="6"/>
-        <v>212886344</v>
-      </c>
-      <c r="V9" s="4">
-        <f t="shared" si="7"/>
         <v>0.34996584705882355</v>
       </c>
-      <c r="W9" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y9" s="4">
+        <f t="shared" si="11"/>
         <v>0.57536849729729733</v>
       </c>
-      <c r="X9" s="4">
-        <f t="shared" si="9"/>
-        <v>0.81879363076923073</v>
-      </c>
-      <c r="Y9" s="4">
-        <f t="shared" si="10"/>
-        <v>3.8706608</v>
-      </c>
       <c r="Z9" s="4">
-        <f t="shared" si="11"/>
-        <v>3.8706608</v>
-      </c>
-      <c r="AA9" s="4"/>
+        <f t="shared" si="12"/>
+        <v>1.0322090153846153</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="13"/>
+        <v>4.8795335272727272</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="14"/>
+        <v>5.7743771636363634</v>
+      </c>
+      <c r="AC9" s="4"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8920,7 +13070,7 @@
         <v>14.782608695652174</v>
       </c>
       <c r="O10" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>16.19047619047619</v>
       </c>
       <c r="T10" s="4">
@@ -8928,32 +13078,40 @@
         <v>951613640</v>
       </c>
       <c r="U10" s="4">
+        <f t="shared" si="8"/>
+        <v>850249160</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="9"/>
+        <v>1072636360</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="10"/>
+        <v>1269372760</v>
+      </c>
+      <c r="X10" s="4">
         <f t="shared" si="6"/>
-        <v>850249160</v>
-      </c>
-      <c r="V10" s="4">
-        <f t="shared" si="7"/>
         <v>0.27988636470588235</v>
       </c>
-      <c r="W10" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y10" s="4">
+        <f t="shared" si="11"/>
         <v>0.47236064444444442</v>
       </c>
-      <c r="X10" s="4">
-        <f t="shared" si="9"/>
-        <v>0.60732082857142855</v>
-      </c>
-      <c r="Y10" s="4">
-        <f t="shared" si="10"/>
-        <v>3.6967354782608695</v>
-      </c>
       <c r="Z10" s="4">
-        <f t="shared" si="11"/>
-        <v>4.0488055238095235</v>
-      </c>
-      <c r="AA10" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0.76616882857142854</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="13"/>
+        <v>4.6636363478260874</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="14"/>
+        <v>6.0446321904761904</v>
+      </c>
+      <c r="AC10" s="4"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8993,7 +13151,7 @@
         <v>12.5</v>
       </c>
       <c r="O11" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>17.241379310344829</v>
       </c>
       <c r="T11" s="4">
@@ -9001,32 +13159,40 @@
         <v>3805868232</v>
       </c>
       <c r="U11" s="4">
+        <f t="shared" si="8"/>
+        <v>3398404808</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="9"/>
+        <v>4288824008</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="10"/>
+        <v>5075512408</v>
+      </c>
+      <c r="X11" s="4">
         <f t="shared" si="6"/>
-        <v>3398404808</v>
-      </c>
-      <c r="V11" s="4">
-        <f t="shared" si="7"/>
         <v>0.2537245488</v>
       </c>
-      <c r="W11" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y11" s="4">
+        <f t="shared" si="11"/>
         <v>0.424800601</v>
       </c>
-      <c r="X11" s="4">
-        <f t="shared" si="9"/>
-        <v>0.53942933460317455</v>
-      </c>
-      <c r="Y11" s="4">
-        <f t="shared" si="10"/>
-        <v>2.8320040066666667</v>
-      </c>
       <c r="Z11" s="4">
-        <f t="shared" si="11"/>
-        <v>3.9062124229885056</v>
-      </c>
-      <c r="AA11" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0.68076571555555554</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="13"/>
+        <v>3.5740200066666667</v>
+      </c>
+      <c r="AB11" s="4">
+        <f t="shared" si="14"/>
+        <v>5.8339223080459774</v>
+      </c>
+      <c r="AC11" s="4"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9066,7 +13232,7 @@
         <v>10.677966101694915</v>
       </c>
       <c r="O12" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>17.5</v>
       </c>
       <c r="T12" s="4">
@@ -9074,37 +13240,45 @@
         <v>15222300872</v>
       </c>
       <c r="U12" s="4">
+        <f t="shared" si="8"/>
+        <v>13588436168</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="9"/>
+        <v>17151853768</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="10"/>
+        <v>20298094168</v>
+      </c>
+      <c r="X12" s="4">
         <f t="shared" si="6"/>
-        <v>13588436168</v>
-      </c>
-      <c r="V12" s="4">
-        <f t="shared" si="7"/>
         <v>0.24162382336507937</v>
       </c>
-      <c r="W12" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y12" s="4">
+        <f t="shared" si="11"/>
         <v>0.39965988729411767</v>
       </c>
-      <c r="X12" s="4">
-        <f t="shared" si="9"/>
-        <v>0.50327541362962958</v>
-      </c>
-      <c r="Y12" s="4">
-        <f t="shared" si="10"/>
-        <v>2.303124774237288</v>
-      </c>
       <c r="Z12" s="4">
-        <f t="shared" si="11"/>
-        <v>3.7745656022222223</v>
-      </c>
-      <c r="AA12" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0.63525384325925927</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="13"/>
+        <v>2.9070938589830511</v>
+      </c>
+      <c r="AB12" s="4">
+        <f t="shared" si="14"/>
+        <v>5.6383594911111112</v>
+      </c>
+      <c r="AC12" s="4"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="2">
-        <f t="shared" ref="B13:B14" si="13">2^A13</f>
+        <f t="shared" ref="B13:B14" si="15">2^A13</f>
         <v>4096</v>
       </c>
       <c r="C13" s="4">
@@ -9139,7 +13313,7 @@
         <v>10.833333333333334</v>
       </c>
       <c r="O13" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>18.571428571428573</v>
       </c>
       <c r="T13" s="4">
@@ -9147,37 +13321,45 @@
         <v>60886859976</v>
       </c>
       <c r="U13" s="4">
+        <f t="shared" si="8"/>
+        <v>54343379144</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="9"/>
+        <v>68600531144</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="10"/>
+        <v>81184467544</v>
+      </c>
+      <c r="X13" s="4">
         <f t="shared" si="6"/>
-        <v>54343379144</v>
-      </c>
-      <c r="V13" s="4">
-        <f t="shared" si="7"/>
         <v>0.23418023067692309</v>
       </c>
-      <c r="W13" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y13" s="4">
+        <f t="shared" si="11"/>
         <v>0.3881669938857143</v>
       </c>
-      <c r="X13" s="4">
-        <f t="shared" si="9"/>
-        <v>0.4940307194909091</v>
-      </c>
-      <c r="Y13" s="4">
-        <f t="shared" si="10"/>
-        <v>2.2643074643333332</v>
-      </c>
       <c r="Z13" s="4">
-        <f t="shared" si="11"/>
-        <v>3.8816699388571427</v>
-      </c>
-      <c r="AA13" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0.62364119221818182</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="13"/>
+        <v>2.8583554643333335</v>
+      </c>
+      <c r="AB13" s="4">
+        <f t="shared" si="14"/>
+        <v>5.798890538857143</v>
+      </c>
+      <c r="AC13" s="4"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>8192</v>
       </c>
       <c r="C14" s="4">
@@ -9212,7 +13394,7 @@
         <v>10.638297872340425</v>
       </c>
       <c r="O14" s="4">
-        <f t="shared" si="12"/>
+        <f t="shared" si="7"/>
         <v>17.241379310344829</v>
       </c>
       <c r="T14" s="4">
@@ -9220,194 +13402,202 @@
         <v>243542753480</v>
       </c>
       <c r="U14" s="4">
+        <f t="shared" si="8"/>
+        <v>217352786120</v>
+      </c>
+      <c r="V14" s="4">
+        <f t="shared" si="9"/>
+        <v>274388357320</v>
+      </c>
+      <c r="W14" s="4">
+        <f t="shared" si="10"/>
+        <v>324722053720</v>
+      </c>
+      <c r="X14" s="4">
         <f t="shared" si="6"/>
-        <v>217352786120</v>
-      </c>
-      <c r="V14" s="4">
-        <f t="shared" si="7"/>
         <v>0.24354275348000001</v>
       </c>
-      <c r="W14" s="4">
-        <f t="shared" si="8"/>
+      <c r="Y14" s="4">
+        <f t="shared" si="11"/>
         <v>0.38132067740350878</v>
       </c>
-      <c r="X14" s="4">
-        <f t="shared" si="9"/>
-        <v>0.46245273642553192</v>
-      </c>
-      <c r="Y14" s="4">
-        <f t="shared" si="10"/>
-        <v>2.3122636821276594</v>
-      </c>
       <c r="Z14" s="4">
-        <f t="shared" si="11"/>
-        <v>3.7474618296551725</v>
-      </c>
-      <c r="AA14" s="4"/>
+        <f t="shared" si="12"/>
+        <v>0.58380501557446807</v>
+      </c>
+      <c r="AA14" s="4">
+        <f t="shared" si="13"/>
+        <v>2.9190250778723406</v>
+      </c>
+      <c r="AB14" s="4">
+        <f t="shared" si="14"/>
+        <v>5.5986560986206895</v>
+      </c>
+      <c r="AC14" s="4"/>
     </row>
-    <row r="15" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15"/>
       <c r="B15" s="2"/>
-      <c r="W15"/>
-      <c r="X15"/>
       <c r="Y15"/>
       <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
     </row>
-    <row r="16" spans="1:27" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="2"/>
-      <c r="W16"/>
-      <c r="X16"/>
       <c r="Y16"/>
       <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
     </row>
-    <row r="17" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17"/>
       <c r="B17" s="2"/>
-      <c r="W17"/>
-      <c r="X17"/>
       <c r="Y17"/>
       <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
     </row>
-    <row r="18" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="2"/>
-      <c r="W18"/>
-      <c r="X18"/>
       <c r="Y18"/>
       <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
     </row>
-    <row r="19" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="2"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="W19"/>
-      <c r="X19"/>
       <c r="Y19"/>
       <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
     </row>
-    <row r="20" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="W20"/>
-      <c r="X20"/>
       <c r="Y20"/>
       <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
     </row>
-    <row r="21" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21"/>
-      <c r="W21"/>
-      <c r="X21"/>
       <c r="Y21"/>
       <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
     </row>
-    <row r="22" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22"/>
       <c r="B22"/>
-      <c r="W22"/>
-      <c r="X22"/>
       <c r="Y22"/>
       <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
     </row>
-    <row r="23" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23"/>
       <c r="B23"/>
-      <c r="W23"/>
-      <c r="X23"/>
       <c r="Y23"/>
       <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
     </row>
-    <row r="24" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24"/>
       <c r="B24"/>
-      <c r="W24"/>
-      <c r="X24"/>
       <c r="Y24"/>
       <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
     </row>
-    <row r="25" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25"/>
       <c r="B25"/>
-      <c r="W25"/>
-      <c r="X25"/>
       <c r="Y25"/>
       <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
     </row>
-    <row r="26" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26"/>
       <c r="B26"/>
-      <c r="W26"/>
-      <c r="X26"/>
       <c r="Y26"/>
       <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
     </row>
-    <row r="27" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27"/>
       <c r="B27"/>
-      <c r="W27"/>
-      <c r="X27"/>
       <c r="Y27"/>
       <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
     </row>
-    <row r="28" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28"/>
       <c r="B28"/>
-      <c r="W28"/>
-      <c r="X28"/>
       <c r="Y28"/>
       <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
     </row>
-    <row r="29" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29"/>
       <c r="B29"/>
-      <c r="W29"/>
-      <c r="X29"/>
       <c r="Y29"/>
       <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
     </row>
-    <row r="30" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30"/>
       <c r="B30"/>
-      <c r="W30"/>
-      <c r="X30"/>
       <c r="Y30"/>
       <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
     </row>
-    <row r="31" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31"/>
       <c r="B31"/>
-      <c r="W31"/>
-      <c r="X31"/>
       <c r="Y31"/>
       <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
     </row>
-    <row r="32" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32"/>
       <c r="B32"/>
-      <c r="W32"/>
-      <c r="X32"/>
       <c r="Y32"/>
       <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
     </row>
-    <row r="33" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33"/>
       <c r="B33"/>
-      <c r="W33"/>
-      <c r="X33"/>
       <c r="Y33"/>
       <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
     </row>
-    <row r="34" spans="1:26" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34"/>
       <c r="B34"/>
-      <c r="W34"/>
-      <c r="X34"/>
       <c r="Y34"/>
       <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
     </row>
     <row r="54" spans="9:9" ht="17" x14ac:dyDescent="0.25">
       <c r="I54" s="6"/>
@@ -9455,8 +13645,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BB1DF00-6DFA-8F46-94BE-9DBFAD313C42}">
   <dimension ref="A1:AA63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="S18" sqref="S18"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10715,4 +14905,1517 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3D4A5A0-96C2-3847-BE9A-9A38A4BEC403}">
+  <dimension ref="A1:AC64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L7" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="AB18" sqref="AB18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="10.83203125" style="4"/>
+    <col min="11" max="11" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.1640625" style="4" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="23" width="10.83203125" style="4"/>
+    <col min="24" max="24" width="11.1640625" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+      <c r="R1" s="3"/>
+      <c r="S1" s="3"/>
+      <c r="T1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="3"/>
+      <c r="V1" s="3"/>
+      <c r="W1" s="3"/>
+      <c r="X1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="AC2" s="3"/>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <f t="shared" ref="B3:B13" si="0">2^A3</f>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>486186</v>
+      </c>
+      <c r="D3" s="4">
+        <v>296406</v>
+      </c>
+      <c r="E3" s="4">
+        <v>802619</v>
+      </c>
+      <c r="F3" s="4">
+        <v>726509</v>
+      </c>
+      <c r="G3" s="4">
+        <v>372360</v>
+      </c>
+      <c r="K3" s="4">
+        <f t="shared" ref="K3:N13" si="1">$C3/C3</f>
+        <v>1</v>
+      </c>
+      <c r="L3" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6402704398696382</v>
+      </c>
+      <c r="M3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.60574942781070473</v>
+      </c>
+      <c r="N3" s="4">
+        <f t="shared" si="1"/>
+        <v>0.66920850257877051</v>
+      </c>
+      <c r="O3" s="4">
+        <f>C3/G3</f>
+        <v>1.305688043828553</v>
+      </c>
+      <c r="T3" s="4">
+        <f>15329*B3^2 + 12272*B3 + 2000</f>
+        <v>296352</v>
+      </c>
+      <c r="U3" s="4">
+        <f>14938.5*B3^2 + 14230.5*B3 + 2000</f>
+        <v>297938</v>
+      </c>
+      <c r="V3" s="4">
+        <f>15788.5*B3^2 + 13380.5*B3 + 2000</f>
+        <v>308138</v>
+      </c>
+      <c r="W3" s="4">
+        <f>23288.5*B3^2 + 15880.5*B3 + 6000</f>
+        <v>442138</v>
+      </c>
+      <c r="X3" s="4">
+        <f t="shared" ref="X3:Z13" si="2">T3/C3</f>
+        <v>0.60954449531660726</v>
+      </c>
+      <c r="Y3" s="4">
+        <f>U3/D3</f>
+        <v>1.005168586330911</v>
+      </c>
+      <c r="Z3" s="4">
+        <f>V3/E3</f>
+        <v>0.38391565612077461</v>
+      </c>
+      <c r="AA3" s="4">
+        <f>V3/F3</f>
+        <v>0.42413514491905813</v>
+      </c>
+      <c r="AB3" s="4">
+        <f>W3/G3</f>
+        <v>1.1873939198624988</v>
+      </c>
+      <c r="AC3" s="4"/>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1513500</v>
+      </c>
+      <c r="D4" s="4">
+        <v>849586</v>
+      </c>
+      <c r="E4" s="4">
+        <v>1638150</v>
+      </c>
+      <c r="F4" s="4">
+        <v>1461110</v>
+      </c>
+      <c r="G4" s="4">
+        <v>841564</v>
+      </c>
+      <c r="K4" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7814559091133799</v>
+      </c>
+      <c r="M4" s="4">
+        <f t="shared" si="1"/>
+        <v>0.92390806702682904</v>
+      </c>
+      <c r="N4" s="4">
+        <f t="shared" si="1"/>
+        <v>1.0358563010314077</v>
+      </c>
+      <c r="O4" s="4">
+        <f t="shared" ref="O4:O13" si="3">C4/G4</f>
+        <v>1.7984371955074123</v>
+      </c>
+      <c r="T4" s="4">
+        <f t="shared" ref="T4:T13" si="4">15329*B4^2 + 12272*B4 + 2000</f>
+        <v>1081232</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" ref="U4:U13" si="5">14938.5*B4^2 + 14230.5*B4 + 2000</f>
+        <v>1071908</v>
+      </c>
+      <c r="V4" s="4">
+        <f t="shared" ref="V4:V13" si="6">15788.5*B4^2 + 13380.5*B4 + 2000</f>
+        <v>1119508</v>
+      </c>
+      <c r="W4" s="4">
+        <f t="shared" ref="W4:W13" si="7">23288.5*B4^2 + 15880.5*B4 + 6000</f>
+        <v>1623508</v>
+      </c>
+      <c r="X4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.71439180706970595</v>
+      </c>
+      <c r="Y4" s="4">
+        <f t="shared" si="2"/>
+        <v>1.2616827490095175</v>
+      </c>
+      <c r="Z4" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6833977352501297</v>
+      </c>
+      <c r="AA4" s="4">
+        <f t="shared" ref="AA4:AB13" si="8">V4/F4</f>
+        <v>0.76620377658081873</v>
+      </c>
+      <c r="AB4" s="4">
+        <f t="shared" si="8"/>
+        <v>1.9291557148357106</v>
+      </c>
+      <c r="AC4" s="4"/>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4687560</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2871310</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3739900</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3258280</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2072240</v>
+      </c>
+      <c r="K5" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.6325509958868949</v>
+      </c>
+      <c r="M5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.2533918019198373</v>
+      </c>
+      <c r="N5" s="4">
+        <f t="shared" si="1"/>
+        <v>1.438660888566974</v>
+      </c>
+      <c r="O5" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2620738910550902</v>
+      </c>
+      <c r="T5" s="4">
+        <f t="shared" si="4"/>
+        <v>4122576</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="5"/>
+        <v>4053944</v>
+      </c>
+      <c r="V5" s="4">
+        <f t="shared" si="6"/>
+        <v>4257944</v>
+      </c>
+      <c r="W5" s="4">
+        <f t="shared" si="7"/>
+        <v>6221944</v>
+      </c>
+      <c r="X5" s="4">
+        <f t="shared" si="2"/>
+        <v>0.87947162276322866</v>
+      </c>
+      <c r="Y5" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4118795950280534</v>
+      </c>
+      <c r="Z5" s="4">
+        <f t="shared" si="2"/>
+        <v>1.1385181421963153</v>
+      </c>
+      <c r="AA5" s="4">
+        <f t="shared" si="8"/>
+        <v>1.3068072725487068</v>
+      </c>
+      <c r="AB5" s="4">
+        <f t="shared" si="8"/>
+        <v>3.0025209435200555</v>
+      </c>
+      <c r="AC5" s="4"/>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C6" s="4">
+        <v>20717700</v>
+      </c>
+      <c r="D6" s="4">
+        <v>11125200</v>
+      </c>
+      <c r="E6" s="4">
+        <v>11496700</v>
+      </c>
+      <c r="F6" s="4">
+        <v>8382690</v>
+      </c>
+      <c r="G6" s="4">
+        <v>6223000</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.862231690216805</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="1"/>
+        <v>1.80205624222603</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="1"/>
+        <v>2.4714858834097408</v>
+      </c>
+      <c r="O6" s="4">
+        <f t="shared" si="3"/>
+        <v>3.3292142053671863</v>
+      </c>
+      <c r="T6" s="4">
+        <f t="shared" si="4"/>
+        <v>16091600</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="5"/>
+        <v>15754400</v>
+      </c>
+      <c r="V6" s="4">
+        <f t="shared" si="6"/>
+        <v>16597600</v>
+      </c>
+      <c r="W6" s="4">
+        <f t="shared" si="7"/>
+        <v>24361600</v>
+      </c>
+      <c r="X6" s="4">
+        <f t="shared" si="2"/>
+        <v>0.77670783919064379</v>
+      </c>
+      <c r="Y6" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4161003847121849</v>
+      </c>
+      <c r="Z6" s="4">
+        <f t="shared" si="2"/>
+        <v>1.4436838397105256</v>
+      </c>
+      <c r="AA6" s="4">
+        <f t="shared" si="8"/>
+        <v>1.9799849451667664</v>
+      </c>
+      <c r="AB6" s="4">
+        <f t="shared" si="8"/>
+        <v>3.9147677968825327</v>
+      </c>
+      <c r="AC6" s="4"/>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="C7" s="4">
+        <v>100471000</v>
+      </c>
+      <c r="D7" s="4">
+        <v>57937400</v>
+      </c>
+      <c r="E7" s="4">
+        <v>49956400</v>
+      </c>
+      <c r="F7" s="4">
+        <v>23910800</v>
+      </c>
+      <c r="G7" s="4">
+        <v>20603200</v>
+      </c>
+      <c r="K7" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L7" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7341302854460159</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0111737435043358</v>
+      </c>
+      <c r="N7" s="4">
+        <f t="shared" si="1"/>
+        <v>4.2019087608946588</v>
+      </c>
+      <c r="O7" s="4">
+        <f t="shared" si="3"/>
+        <v>4.8764754989516188</v>
+      </c>
+      <c r="T7" s="4">
+        <f t="shared" si="4"/>
+        <v>63574992</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="5"/>
+        <v>62100848</v>
+      </c>
+      <c r="V7" s="4">
+        <f t="shared" si="6"/>
+        <v>65528048</v>
+      </c>
+      <c r="W7" s="4">
+        <f t="shared" si="7"/>
+        <v>96412048</v>
+      </c>
+      <c r="X7" s="4">
+        <f t="shared" si="2"/>
+        <v>0.6327695753003354</v>
+      </c>
+      <c r="Y7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.0718611466859058</v>
+      </c>
+      <c r="Z7" s="4">
+        <f t="shared" si="2"/>
+        <v>1.3117047665564372</v>
+      </c>
+      <c r="AA7" s="4">
+        <f t="shared" si="8"/>
+        <v>2.7405209361460092</v>
+      </c>
+      <c r="AB7" s="4">
+        <f t="shared" si="8"/>
+        <v>4.6794695969558129</v>
+      </c>
+      <c r="AC7" s="4"/>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" si="0"/>
+        <v>128</v>
+      </c>
+      <c r="C8" s="4">
+        <v>785651000</v>
+      </c>
+      <c r="D8" s="4">
+        <v>449989000</v>
+      </c>
+      <c r="E8" s="4">
+        <v>422184000</v>
+      </c>
+      <c r="F8" s="4">
+        <v>84860900</v>
+      </c>
+      <c r="G8" s="4">
+        <v>90782200</v>
+      </c>
+      <c r="K8" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.7459337894926321</v>
+      </c>
+      <c r="M8" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8609208307278342</v>
+      </c>
+      <c r="N8" s="4">
+        <f t="shared" si="1"/>
+        <v>9.258103555347633</v>
+      </c>
+      <c r="O8" s="4">
+        <f t="shared" si="3"/>
+        <v>8.6542405890141456</v>
+      </c>
+      <c r="T8" s="4">
+        <f t="shared" si="4"/>
+        <v>252723152</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="5"/>
+        <v>246575888</v>
+      </c>
+      <c r="V8" s="4">
+        <f t="shared" si="6"/>
+        <v>260393488</v>
+      </c>
+      <c r="W8" s="4">
+        <f t="shared" si="7"/>
+        <v>383597488</v>
+      </c>
+      <c r="X8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.32167355734289144</v>
+      </c>
+      <c r="Y8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.54795981235096858</v>
+      </c>
+      <c r="Z8" s="4">
+        <f t="shared" si="2"/>
+        <v>0.61677725351979229</v>
+      </c>
+      <c r="AA8" s="4">
+        <f t="shared" si="8"/>
+        <v>3.0684742678901591</v>
+      </c>
+      <c r="AB8" s="4">
+        <f t="shared" si="8"/>
+        <v>4.2254702794160091</v>
+      </c>
+      <c r="AC8" s="4"/>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="C9" s="4">
+        <v>5058500000</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2618160000</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2446250000</v>
+      </c>
+      <c r="F9" s="4">
+        <v>284912000</v>
+      </c>
+      <c r="G9" s="4">
+        <v>284276000</v>
+      </c>
+      <c r="K9" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L9" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9320820729061632</v>
+      </c>
+      <c r="M9" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0678589678078692</v>
+      </c>
+      <c r="N9" s="4">
+        <f t="shared" si="1"/>
+        <v>17.75460493064525</v>
+      </c>
+      <c r="O9" s="4">
+        <f t="shared" si="3"/>
+        <v>17.794326640307307</v>
+      </c>
+      <c r="T9" s="4">
+        <f t="shared" si="4"/>
+        <v>1007744976</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="5"/>
+        <v>982654544</v>
+      </c>
+      <c r="V9" s="4">
+        <f t="shared" si="6"/>
+        <v>1038142544</v>
+      </c>
+      <c r="W9" s="4">
+        <f t="shared" si="7"/>
+        <v>1530306544</v>
+      </c>
+      <c r="X9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.19921814292774537</v>
+      </c>
+      <c r="Y9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.37532257157698534</v>
+      </c>
+      <c r="Z9" s="4">
+        <f t="shared" si="2"/>
+        <v>0.42438121369443027</v>
+      </c>
+      <c r="AA9" s="4">
+        <f t="shared" si="8"/>
+        <v>3.6437304992418711</v>
+      </c>
+      <c r="AB9" s="4">
+        <f t="shared" si="8"/>
+        <v>5.3831717907948615</v>
+      </c>
+      <c r="AC9" s="4"/>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <f t="shared" si="0"/>
+        <v>512</v>
+      </c>
+      <c r="C10" s="4">
+        <v>26236200000</v>
+      </c>
+      <c r="D10" s="4">
+        <v>13241100000</v>
+      </c>
+      <c r="E10" s="4">
+        <v>12660300000</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1296180000</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1110890000</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.9814214831094092</v>
+      </c>
+      <c r="M10" s="4">
+        <f t="shared" si="1"/>
+        <v>2.072320561124144</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="1"/>
+        <v>20.241170207841503</v>
+      </c>
+      <c r="O10" s="4">
+        <f t="shared" si="3"/>
+        <v>23.617279838687899</v>
+      </c>
+      <c r="T10" s="4">
+        <f t="shared" si="4"/>
+        <v>4024690640</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="5"/>
+        <v>3923326160</v>
+      </c>
+      <c r="V10" s="4">
+        <f t="shared" si="6"/>
+        <v>4145713360</v>
+      </c>
+      <c r="W10" s="4">
+        <f t="shared" si="7"/>
+        <v>6113077360</v>
+      </c>
+      <c r="X10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.15340219391527737</v>
+      </c>
+      <c r="Y10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.29629911110104146</v>
+      </c>
+      <c r="Z10" s="4">
+        <f t="shared" si="2"/>
+        <v>0.32745775060622578</v>
+      </c>
+      <c r="AA10" s="4">
+        <f t="shared" si="8"/>
+        <v>3.1984086778070946</v>
+      </c>
+      <c r="AB10" s="4">
+        <f t="shared" si="8"/>
+        <v>5.5028646940741206</v>
+      </c>
+      <c r="AC10" s="4"/>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <f t="shared" si="0"/>
+        <v>1024</v>
+      </c>
+      <c r="C11" s="4">
+        <v>120018000000</v>
+      </c>
+      <c r="D11" s="4">
+        <v>59713300000</v>
+      </c>
+      <c r="E11" s="4">
+        <v>57663400000</v>
+      </c>
+      <c r="F11" s="4">
+        <v>8293030000</v>
+      </c>
+      <c r="G11" s="4">
+        <v>4568120000</v>
+      </c>
+      <c r="K11" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L11" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0099039912381329</v>
+      </c>
+      <c r="M11" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0813548975606713</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" si="1"/>
+        <v>14.472153121356127</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="3"/>
+        <v>26.272952549407634</v>
+      </c>
+      <c r="T11" s="4">
+        <f t="shared" si="4"/>
+        <v>16086190032</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="5"/>
+        <v>15678726608</v>
+      </c>
+      <c r="V11" s="4">
+        <f t="shared" si="6"/>
+        <v>16569145808</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" si="7"/>
+        <v>24436029808</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.13403147887816827</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.26256674154669063</v>
+      </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="2"/>
+        <v>0.28734250508988368</v>
+      </c>
+      <c r="AA11" s="4">
+        <f t="shared" si="8"/>
+        <v>1.9979604327971803</v>
+      </c>
+      <c r="AB11" s="4">
+        <f t="shared" si="8"/>
+        <v>5.3492530423894298</v>
+      </c>
+      <c r="AC11" s="4"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <f t="shared" si="0"/>
+        <v>2048</v>
+      </c>
+      <c r="C12" s="4">
+        <v>512834000000</v>
+      </c>
+      <c r="D12" s="4">
+        <v>256317000000</v>
+      </c>
+      <c r="E12" s="4">
+        <v>246571000000</v>
+      </c>
+      <c r="F12" s="4">
+        <v>37726400000</v>
+      </c>
+      <c r="G12" s="4">
+        <v>18319700000</v>
+      </c>
+      <c r="K12" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L12" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0007802837892141</v>
+      </c>
+      <c r="M12" s="4">
+        <f t="shared" si="1"/>
+        <v>2.0798634064833252</v>
+      </c>
+      <c r="N12" s="4">
+        <f t="shared" si="1"/>
+        <v>13.593504813605326</v>
+      </c>
+      <c r="O12" s="4">
+        <f t="shared" si="3"/>
+        <v>27.993580680906348</v>
+      </c>
+      <c r="T12" s="4">
+        <f t="shared" si="4"/>
+        <v>64319621072</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="5"/>
+        <v>62685756368</v>
+      </c>
+      <c r="V12" s="4">
+        <f t="shared" si="6"/>
+        <v>66249173968</v>
+      </c>
+      <c r="W12" s="4">
+        <f t="shared" si="7"/>
+        <v>97711577968</v>
+      </c>
+      <c r="X12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12541996254538507</v>
+      </c>
+      <c r="Y12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.24456339754288633</v>
+      </c>
+      <c r="Z12" s="4">
+        <f t="shared" si="2"/>
+        <v>0.26868193732434065</v>
+      </c>
+      <c r="AA12" s="4">
+        <f t="shared" si="8"/>
+        <v>1.7560428232749481</v>
+      </c>
+      <c r="AB12" s="4">
+        <f t="shared" si="8"/>
+        <v>5.3336887595320883</v>
+      </c>
+      <c r="AC12" s="4"/>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <f t="shared" si="0"/>
+        <v>4096</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2029650000000</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1068270000000</v>
+      </c>
+      <c r="E13" s="4">
+        <v>1032160000000</v>
+      </c>
+      <c r="F13" s="4">
+        <v>157328000000</v>
+      </c>
+      <c r="G13" s="4">
+        <v>73501200000</v>
+      </c>
+      <c r="K13" s="4">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="L13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.8999410261450758</v>
+      </c>
+      <c r="M13" s="4">
+        <f t="shared" si="1"/>
+        <v>1.966410246473415</v>
+      </c>
+      <c r="N13" s="4">
+        <f t="shared" si="1"/>
+        <v>12.900755110342724</v>
+      </c>
+      <c r="O13" s="4">
+        <f t="shared" si="3"/>
+        <v>27.613834876165289</v>
+      </c>
+      <c r="T13" s="4">
+        <f t="shared" si="4"/>
+        <v>257228212176</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="5"/>
+        <v>250684731344</v>
+      </c>
+      <c r="V13" s="4">
+        <f t="shared" si="6"/>
+        <v>264941883344</v>
+      </c>
+      <c r="W13" s="4">
+        <f t="shared" si="7"/>
+        <v>390781247344</v>
+      </c>
+      <c r="X13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.12673525591900081</v>
+      </c>
+      <c r="Y13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.2346642060003557</v>
+      </c>
+      <c r="Z13" s="4">
+        <f t="shared" si="2"/>
+        <v>0.25668683473880016</v>
+      </c>
+      <c r="AA13" s="4">
+        <f t="shared" si="8"/>
+        <v>1.6840097334485915</v>
+      </c>
+      <c r="AB13" s="4">
+        <f t="shared" si="8"/>
+        <v>5.3166648618525958</v>
+      </c>
+      <c r="AC13" s="4"/>
+    </row>
+    <row r="14" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14"/>
+      <c r="B14" s="2"/>
+      <c r="Y14"/>
+      <c r="Z14"/>
+      <c r="AA14"/>
+      <c r="AB14"/>
+    </row>
+    <row r="15" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15" s="2"/>
+      <c r="Y15"/>
+      <c r="Z15"/>
+      <c r="AA15"/>
+      <c r="AB15"/>
+    </row>
+    <row r="16" spans="1:29" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16" s="2"/>
+      <c r="Y16"/>
+      <c r="Z16"/>
+      <c r="AA16"/>
+      <c r="AB16"/>
+    </row>
+    <row r="17" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17" s="2"/>
+      <c r="Y17"/>
+      <c r="Z17"/>
+      <c r="AA17"/>
+      <c r="AB17"/>
+    </row>
+    <row r="18" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="Y18"/>
+      <c r="Z18"/>
+      <c r="AA18"/>
+      <c r="AB18"/>
+    </row>
+    <row r="19" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="Y19"/>
+      <c r="Z19"/>
+      <c r="AA19"/>
+      <c r="AB19"/>
+    </row>
+    <row r="20" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="Y20"/>
+      <c r="Z20"/>
+      <c r="AA20"/>
+      <c r="AB20"/>
+    </row>
+    <row r="21" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+    </row>
+    <row r="22" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+    </row>
+    <row r="23" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="Y23"/>
+      <c r="Z23"/>
+      <c r="AA23"/>
+      <c r="AB23"/>
+    </row>
+    <row r="24" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="Y24"/>
+      <c r="Z24"/>
+      <c r="AA24"/>
+      <c r="AB24"/>
+    </row>
+    <row r="25" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="Y25"/>
+      <c r="Z25"/>
+      <c r="AA25"/>
+      <c r="AB25"/>
+    </row>
+    <row r="26" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="Y26"/>
+      <c r="Z26"/>
+      <c r="AA26"/>
+      <c r="AB26"/>
+    </row>
+    <row r="27" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="Y27"/>
+      <c r="Z27"/>
+      <c r="AA27"/>
+      <c r="AB27"/>
+    </row>
+    <row r="28" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="Y28"/>
+      <c r="Z28"/>
+      <c r="AA28"/>
+      <c r="AB28"/>
+    </row>
+    <row r="29" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="Y29"/>
+      <c r="Z29"/>
+      <c r="AA29"/>
+      <c r="AB29"/>
+    </row>
+    <row r="30" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="Y30"/>
+      <c r="Z30"/>
+      <c r="AA30"/>
+      <c r="AB30"/>
+    </row>
+    <row r="31" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="Y31"/>
+      <c r="Z31"/>
+      <c r="AA31"/>
+      <c r="AB31"/>
+    </row>
+    <row r="32" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="Y32"/>
+      <c r="Z32"/>
+      <c r="AA32"/>
+      <c r="AB32"/>
+    </row>
+    <row r="33" spans="1:28" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="Y33"/>
+      <c r="Z33"/>
+      <c r="AA33"/>
+      <c r="AB33"/>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>486186</v>
+      </c>
+      <c r="C42" s="4">
+        <v>296406</v>
+      </c>
+      <c r="D42" s="4">
+        <v>802619</v>
+      </c>
+      <c r="E42" s="4">
+        <v>726509</v>
+      </c>
+      <c r="F42" s="4">
+        <v>372360</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B43" s="4">
+        <v>1513500</v>
+      </c>
+      <c r="C43" s="4">
+        <v>849586</v>
+      </c>
+      <c r="D43" s="4">
+        <v>1638150</v>
+      </c>
+      <c r="E43" s="4">
+        <v>1461110</v>
+      </c>
+      <c r="F43" s="4">
+        <v>841564</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B44" s="4">
+        <v>4687560</v>
+      </c>
+      <c r="C44" s="4">
+        <v>2871310</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3739900</v>
+      </c>
+      <c r="E44" s="4">
+        <v>3258280</v>
+      </c>
+      <c r="F44" s="4">
+        <v>2072240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B45" s="4">
+        <v>20717700</v>
+      </c>
+      <c r="C45" s="4">
+        <v>11125200</v>
+      </c>
+      <c r="D45" s="4">
+        <v>11496700</v>
+      </c>
+      <c r="E45" s="4">
+        <v>8382690</v>
+      </c>
+      <c r="F45" s="4">
+        <v>6223000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B46" s="4">
+        <v>100471000</v>
+      </c>
+      <c r="C46" s="4">
+        <v>57937400</v>
+      </c>
+      <c r="D46" s="4">
+        <v>49956400</v>
+      </c>
+      <c r="E46" s="4">
+        <v>23910800</v>
+      </c>
+      <c r="F46" s="4">
+        <v>20603200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B47" s="4">
+        <v>785651000</v>
+      </c>
+      <c r="C47" s="4">
+        <v>449989000</v>
+      </c>
+      <c r="D47" s="4">
+        <v>422184000</v>
+      </c>
+      <c r="E47" s="4">
+        <v>84860900</v>
+      </c>
+      <c r="F47" s="4">
+        <v>90782200</v>
+      </c>
+    </row>
+    <row r="48" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="B48" s="4">
+        <v>5058500000</v>
+      </c>
+      <c r="C48" s="4">
+        <v>2618160000</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2446250000</v>
+      </c>
+      <c r="E48" s="4">
+        <v>284912000</v>
+      </c>
+      <c r="F48" s="4">
+        <v>284276000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B49" s="4">
+        <v>26236200000</v>
+      </c>
+      <c r="C49" s="4">
+        <v>13241100000</v>
+      </c>
+      <c r="D49" s="4">
+        <v>12660300000</v>
+      </c>
+      <c r="E49" s="4">
+        <v>1296180000</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1110890000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B50" s="4">
+        <v>120018000000</v>
+      </c>
+      <c r="C50" s="4">
+        <v>59713300000</v>
+      </c>
+      <c r="D50" s="4">
+        <v>57663400000</v>
+      </c>
+      <c r="E50" s="4">
+        <v>8293030000</v>
+      </c>
+      <c r="F50" s="4">
+        <v>4568120000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B51" s="4">
+        <v>512834000000</v>
+      </c>
+      <c r="C51" s="4">
+        <v>256317000000</v>
+      </c>
+      <c r="D51" s="4">
+        <v>246571000000</v>
+      </c>
+      <c r="E51" s="4">
+        <v>37726400000</v>
+      </c>
+      <c r="F51" s="4">
+        <v>18319700000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="B52" s="4">
+        <v>2029650000000</v>
+      </c>
+      <c r="C52" s="4">
+        <v>1068270000000</v>
+      </c>
+      <c r="D52" s="4">
+        <v>1032160000000</v>
+      </c>
+      <c r="E52" s="4">
+        <v>157328000000</v>
+      </c>
+      <c r="F52" s="4">
+        <v>73501200000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="I53" s="6"/>
+      <c r="Y53"/>
+      <c r="Z53"/>
+      <c r="AA53"/>
+      <c r="AB53"/>
+      <c r="AC53"/>
+    </row>
+    <row r="54" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A54"/>
+      <c r="B54"/>
+      <c r="I54" s="6"/>
+      <c r="Y54"/>
+      <c r="Z54"/>
+      <c r="AA54"/>
+      <c r="AB54"/>
+      <c r="AC54"/>
+    </row>
+    <row r="55" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A55"/>
+      <c r="B55"/>
+      <c r="I55" s="6"/>
+      <c r="Y55"/>
+      <c r="Z55"/>
+      <c r="AA55"/>
+      <c r="AB55"/>
+      <c r="AC55"/>
+    </row>
+    <row r="56" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A56"/>
+      <c r="B56"/>
+      <c r="I56" s="6"/>
+      <c r="Y56"/>
+      <c r="Z56"/>
+      <c r="AA56"/>
+      <c r="AB56"/>
+      <c r="AC56"/>
+    </row>
+    <row r="57" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A57"/>
+      <c r="B57"/>
+      <c r="I57" s="6"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+    </row>
+    <row r="58" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A58"/>
+      <c r="B58"/>
+      <c r="I58" s="6"/>
+      <c r="Y58"/>
+      <c r="Z58"/>
+      <c r="AA58"/>
+      <c r="AB58"/>
+      <c r="AC58"/>
+    </row>
+    <row r="59" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A59"/>
+      <c r="B59"/>
+      <c r="I59" s="6"/>
+      <c r="Y59"/>
+      <c r="Z59"/>
+      <c r="AA59"/>
+      <c r="AB59"/>
+      <c r="AC59"/>
+    </row>
+    <row r="60" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A60"/>
+      <c r="B60"/>
+      <c r="I60" s="6"/>
+      <c r="Y60"/>
+      <c r="Z60"/>
+      <c r="AA60"/>
+      <c r="AB60"/>
+      <c r="AC60"/>
+    </row>
+    <row r="61" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A61"/>
+      <c r="B61"/>
+      <c r="I61" s="6"/>
+      <c r="Y61"/>
+      <c r="Z61"/>
+      <c r="AA61"/>
+      <c r="AB61"/>
+      <c r="AC61"/>
+    </row>
+    <row r="62" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A62"/>
+      <c r="B62"/>
+      <c r="I62" s="6"/>
+      <c r="Y62"/>
+      <c r="Z62"/>
+      <c r="AA62"/>
+      <c r="AB62"/>
+      <c r="AC62"/>
+    </row>
+    <row r="63" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A63"/>
+      <c r="B63"/>
+      <c r="I63" s="6"/>
+      <c r="Y63"/>
+      <c r="Z63"/>
+      <c r="AA63"/>
+      <c r="AB63"/>
+      <c r="AC63"/>
+    </row>
+    <row r="64" spans="1:29" s="4" customFormat="1" ht="17" x14ac:dyDescent="0.25">
+      <c r="A64"/>
+      <c r="B64"/>
+      <c r="I64" s="6"/>
+      <c r="Y64"/>
+      <c r="Z64"/>
+      <c r="AA64"/>
+      <c r="AB64"/>
+      <c r="AC64"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>